--- a/control de tareas Unidad II - Sarvia.xlsx
+++ b/control de tareas Unidad II - Sarvia.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdalbertoPc\Documents\luterano 2016\Bachillerato\tareas\videosDigital\PunteosActividades5to\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion de canal de Youtube" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
     <author>AdalbertoPc</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>hoja de cotejo Produccion de Contenidos digitales.</t>
   </si>
@@ -242,12 +247,15 @@
   </si>
   <si>
     <t>Katherine Lobos</t>
+  </si>
+  <si>
+    <t>NO se envio el link de los canales personales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -400,6 +408,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,8 +426,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,25 +780,26 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -812,7 +830,7 @@
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -821,65 +839,67 @@
       <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="1"/>
@@ -888,7 +908,7 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="1"/>
@@ -897,16 +917,17 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B7:B14"/>
+    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -919,7 +940,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,18 +948,18 @@
     <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -976,7 +997,7 @@
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -985,52 +1006,60 @@
       <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1072,7 @@
       <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>
@@ -1052,7 +1081,7 @@
       <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
@@ -1061,7 +1090,7 @@
       <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>
@@ -1095,13 +1124,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1139,7 +1168,7 @@
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1154,7 +1183,7 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1196,7 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1180,7 +1209,7 @@
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1222,7 @@
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1235,7 @@
       <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>
@@ -1215,7 +1244,7 @@
       <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
@@ -1224,7 +1253,7 @@
       <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>
@@ -1258,13 +1287,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1302,7 +1331,7 @@
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1317,7 +1346,7 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1359,7 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1343,7 +1372,7 @@
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1356,7 +1385,7 @@
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1398,7 @@
       <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6"/>
       <c r="D12" s="13"/>
       <c r="E12" s="7"/>
@@ -1378,7 +1407,7 @@
       <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
@@ -1387,7 +1416,7 @@
       <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13"/>
       <c r="E14" s="7"/>

--- a/control de tareas Unidad II - Sarvia.xlsx
+++ b/control de tareas Unidad II - Sarvia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion de canal de Youtube" sheetId="1" r:id="rId1"/>
@@ -423,17 +423,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -575,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +839,7 @@
       <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -854,7 +854,7 @@
       <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -867,7 +867,7 @@
       <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -880,7 +880,7 @@
       <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -893,7 +893,7 @@
       <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,13 +953,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1052,7 +1052,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,13 +1124,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
@@ -1177,7 +1177,9 @@
       <c r="D7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1190,7 +1192,9 @@
       <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1203,7 +1207,9 @@
       <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1216,7 +1222,9 @@
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1229,7 +1237,9 @@
       <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1287,13 +1297,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
